--- a/OSW1x48/doc/1x48标定模板_20201115.xlsx
+++ b/OSW1x48/doc/1x48标定模板_20201115.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="10590"/>
+    <workbookView windowWidth="24940" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="208">
   <si>
     <t>debug</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>sw1</t>
+  </si>
+  <si>
+    <t>-676</t>
+  </si>
+  <si>
+    <t>3333</t>
   </si>
   <si>
     <t>sw2</t>
@@ -644,8 +650,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -670,67 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,9 +692,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,16 +730,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +752,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -822,49 +828,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,103 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +922,96 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1016,17 +1022,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,30 +1038,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,17 +1053,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1080,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,133 +1139,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,16 +1644,16 @@
   <sheetPr/>
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.8" style="1" customWidth="1"/>
     <col min="4" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="27.0416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.0454545454545" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1807,7 +1813,7 @@
       <c r="F9" s="4"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" ht="40.5" spans="1:9">
+    <row r="10" ht="42" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,11 +1883,11 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="5">
-        <v>-676</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1011</v>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1952,7 +1958,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1972,7 +1978,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1992,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2012,7 +2018,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -2032,7 +2038,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -2052,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
@@ -2072,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>7</v>
@@ -2092,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
@@ -2112,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
         <v>9</v>
@@ -2132,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
@@ -2152,7 +2158,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
         <v>11</v>
@@ -2172,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
         <v>12</v>
@@ -2192,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
         <v>13</v>
@@ -2212,7 +2218,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1">
         <v>14</v>
@@ -2232,7 +2238,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1">
         <v>15</v>
@@ -2252,7 +2258,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2272,7 +2278,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2292,7 +2298,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -2312,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -2332,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -2352,7 +2358,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -2372,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -2392,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -2412,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1">
         <v>9</v>
@@ -2432,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1">
         <v>10</v>
@@ -2452,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1">
         <v>11</v>
@@ -2472,7 +2478,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1">
         <v>12</v>
@@ -2492,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1">
         <v>13</v>
@@ -2512,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1">
         <v>14</v>
@@ -2532,7 +2538,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1">
         <v>15</v>
@@ -2552,7 +2558,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2572,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -2592,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -2612,7 +2618,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -2632,7 +2638,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
@@ -2652,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1">
         <v>6</v>
@@ -2672,7 +2678,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>7</v>
@@ -2692,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1">
         <v>8</v>
@@ -2712,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
         <v>9</v>
@@ -2732,7 +2738,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1">
         <v>10</v>
@@ -2752,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1">
         <v>11</v>
@@ -2772,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
@@ -2792,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1">
         <v>13</v>
@@ -2812,7 +2818,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <v>14</v>
@@ -2832,7 +2838,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <v>15</v>
@@ -2852,7 +2858,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="5">
         <v>3</v>
@@ -2866,10 +2872,10 @@
         <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2880,7 +2886,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
@@ -2894,10 +2900,10 @@
         <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2908,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
@@ -2922,10 +2928,10 @@
         <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2936,13 +2942,13 @@
         <v>22</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2953,13 +2959,13 @@
         <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2970,13 +2976,13 @@
         <v>22</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2987,13 +2993,13 @@
         <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3004,13 +3010,13 @@
         <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3021,13 +3027,13 @@
         <v>22</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3038,13 +3044,13 @@
         <v>22</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3055,13 +3061,13 @@
         <v>22</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3072,13 +3078,13 @@
         <v>22</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3089,13 +3095,13 @@
         <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3106,13 +3112,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3123,13 +3129,13 @@
         <v>22</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3140,13 +3146,13 @@
         <v>22</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3157,13 +3163,13 @@
         <v>22</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3174,13 +3180,13 @@
         <v>22</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E89" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3191,13 +3197,13 @@
         <v>22</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3208,13 +3214,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3225,13 +3231,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3242,13 +3248,13 @@
         <v>22</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3259,13 +3265,13 @@
         <v>22</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3276,13 +3282,13 @@
         <v>22</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3293,13 +3299,13 @@
         <v>22</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3310,13 +3316,13 @@
         <v>22</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3327,13 +3333,13 @@
         <v>22</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3344,13 +3350,13 @@
         <v>22</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3361,13 +3367,13 @@
         <v>22</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3378,13 +3384,13 @@
         <v>22</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3395,13 +3401,13 @@
         <v>22</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3412,13 +3418,13 @@
         <v>22</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3429,13 +3435,13 @@
         <v>22</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3446,13 +3452,13 @@
         <v>22</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3463,13 +3469,13 @@
         <v>22</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3480,13 +3486,13 @@
         <v>22</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3497,13 +3503,13 @@
         <v>22</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3514,13 +3520,13 @@
         <v>22</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3531,13 +3537,13 @@
         <v>22</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3548,13 +3554,13 @@
         <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3565,13 +3571,13 @@
         <v>22</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3582,13 +3588,13 @@
         <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3599,13 +3605,13 @@
         <v>22</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3616,13 +3622,13 @@
         <v>22</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3633,13 +3639,13 @@
         <v>22</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3650,13 +3656,13 @@
         <v>22</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3667,13 +3673,13 @@
         <v>22</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3684,13 +3690,13 @@
         <v>22</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3701,13 +3707,13 @@
         <v>22</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3718,13 +3724,13 @@
         <v>22</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3735,13 +3741,13 @@
         <v>22</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3752,13 +3758,13 @@
         <v>22</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3769,13 +3775,13 @@
         <v>22</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3786,13 +3792,13 @@
         <v>22</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3803,13 +3809,13 @@
         <v>22</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3820,13 +3826,13 @@
         <v>22</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3837,13 +3843,13 @@
         <v>22</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3854,13 +3860,13 @@
         <v>22</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3871,13 +3877,13 @@
         <v>22</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3888,13 +3894,13 @@
         <v>22</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3905,13 +3911,13 @@
         <v>22</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3922,13 +3928,13 @@
         <v>22</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3939,13 +3945,13 @@
         <v>22</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3956,13 +3962,13 @@
         <v>22</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3973,13 +3979,13 @@
         <v>22</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3990,13 +3996,13 @@
         <v>22</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4007,13 +4013,13 @@
         <v>22</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4024,13 +4030,13 @@
         <v>22</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4041,13 +4047,13 @@
         <v>22</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4058,13 +4064,13 @@
         <v>22</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4075,13 +4081,13 @@
         <v>22</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4092,13 +4098,13 @@
         <v>22</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4109,13 +4115,13 @@
         <v>22</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4126,13 +4132,13 @@
         <v>22</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4143,13 +4149,13 @@
         <v>22</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4160,13 +4166,13 @@
         <v>22</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4177,13 +4183,13 @@
         <v>22</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4194,13 +4200,13 @@
         <v>22</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4211,13 +4217,13 @@
         <v>22</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4228,13 +4234,13 @@
         <v>22</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4245,13 +4251,13 @@
         <v>22</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4262,13 +4268,13 @@
         <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4279,13 +4285,13 @@
         <v>22</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4296,13 +4302,13 @@
         <v>22</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4313,13 +4319,13 @@
         <v>22</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4330,13 +4336,13 @@
         <v>22</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4347,13 +4353,13 @@
         <v>22</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4364,13 +4370,13 @@
         <v>22</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4381,13 +4387,13 @@
         <v>22</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4398,13 +4404,13 @@
         <v>22</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4415,13 +4421,13 @@
         <v>22</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4432,13 +4438,13 @@
         <v>22</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4449,13 +4455,13 @@
         <v>22</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4466,13 +4472,13 @@
         <v>22</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4483,13 +4489,13 @@
         <v>22</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4500,13 +4506,13 @@
         <v>22</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4517,13 +4523,13 @@
         <v>22</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4534,13 +4540,13 @@
         <v>22</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4551,13 +4557,13 @@
         <v>22</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4568,13 +4574,13 @@
         <v>22</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4585,13 +4591,13 @@
         <v>22</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4602,13 +4608,13 @@
         <v>22</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4619,13 +4625,13 @@
         <v>22</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4636,13 +4642,13 @@
         <v>22</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4653,13 +4659,13 @@
         <v>22</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4670,13 +4676,13 @@
         <v>22</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4687,13 +4693,13 @@
         <v>22</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4704,13 +4710,13 @@
         <v>22</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4721,13 +4727,13 @@
         <v>22</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4738,13 +4744,13 @@
         <v>22</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4755,13 +4761,13 @@
         <v>22</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4772,13 +4778,13 @@
         <v>22</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4789,13 +4795,13 @@
         <v>22</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4806,13 +4812,13 @@
         <v>22</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4823,13 +4829,13 @@
         <v>22</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4840,13 +4846,13 @@
         <v>22</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4857,13 +4863,13 @@
         <v>22</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4874,13 +4880,13 @@
         <v>22</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4891,13 +4897,13 @@
         <v>22</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4908,13 +4914,13 @@
         <v>22</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4925,13 +4931,13 @@
         <v>22</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4942,13 +4948,13 @@
         <v>22</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4959,13 +4965,13 @@
         <v>22</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4976,13 +4982,13 @@
         <v>22</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4993,13 +4999,13 @@
         <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5010,13 +5016,13 @@
         <v>22</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5027,13 +5033,13 @@
         <v>22</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5044,13 +5050,13 @@
         <v>22</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5061,13 +5067,13 @@
         <v>22</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5078,13 +5084,13 @@
         <v>22</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5095,13 +5101,13 @@
         <v>22</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5112,13 +5118,13 @@
         <v>22</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5129,13 +5135,13 @@
         <v>22</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5146,13 +5152,13 @@
         <v>22</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5163,13 +5169,13 @@
         <v>22</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5180,13 +5186,13 @@
         <v>22</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5197,13 +5203,13 @@
         <v>22</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5214,13 +5220,13 @@
         <v>22</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5231,13 +5237,13 @@
         <v>22</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5248,13 +5254,13 @@
         <v>22</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5265,13 +5271,13 @@
         <v>22</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5282,13 +5288,13 @@
         <v>22</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5299,13 +5305,13 @@
         <v>22</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5316,13 +5322,13 @@
         <v>22</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5333,13 +5339,13 @@
         <v>22</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5350,13 +5356,13 @@
         <v>22</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E219" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5367,13 +5373,13 @@
         <v>22</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5384,13 +5390,13 @@
         <v>22</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5401,13 +5407,13 @@
         <v>22</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5418,13 +5424,13 @@
         <v>22</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5435,13 +5441,13 @@
         <v>22</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5452,13 +5458,13 @@
         <v>22</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5469,13 +5475,13 @@
         <v>22</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5486,13 +5492,13 @@
         <v>22</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5503,13 +5509,13 @@
         <v>22</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5520,13 +5526,13 @@
         <v>22</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5537,13 +5543,13 @@
         <v>22</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5554,13 +5560,13 @@
         <v>22</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5571,13 +5577,13 @@
         <v>22</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5588,13 +5594,13 @@
         <v>22</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5605,13 +5611,13 @@
         <v>22</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5622,13 +5628,13 @@
         <v>22</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5639,13 +5645,13 @@
         <v>22</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5656,13 +5662,13 @@
         <v>22</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5673,13 +5679,13 @@
         <v>22</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5690,13 +5696,13 @@
         <v>22</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5707,13 +5713,13 @@
         <v>22</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5724,13 +5730,13 @@
         <v>22</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5741,13 +5747,13 @@
         <v>22</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5758,13 +5764,13 @@
         <v>22</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5775,13 +5781,13 @@
         <v>22</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5792,13 +5798,13 @@
         <v>22</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5809,13 +5815,13 @@
         <v>22</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5826,13 +5832,13 @@
         <v>22</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5843,13 +5849,13 @@
         <v>22</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5860,13 +5866,13 @@
         <v>22</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5877,13 +5883,13 @@
         <v>22</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5894,13 +5900,13 @@
         <v>22</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5911,13 +5917,13 @@
         <v>22</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5928,13 +5934,13 @@
         <v>22</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5945,13 +5951,13 @@
         <v>22</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5962,13 +5968,13 @@
         <v>22</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5979,13 +5985,13 @@
         <v>22</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5996,13 +6002,13 @@
         <v>22</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6013,13 +6019,13 @@
         <v>22</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6030,13 +6036,13 @@
         <v>22</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6047,13 +6053,13 @@
         <v>22</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6064,13 +6070,13 @@
         <v>22</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6081,13 +6087,13 @@
         <v>22</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6098,13 +6104,13 @@
         <v>22</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6115,13 +6121,13 @@
         <v>22</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6132,13 +6138,13 @@
         <v>22</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6149,13 +6155,13 @@
         <v>22</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6166,13 +6172,13 @@
         <v>22</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6183,13 +6189,13 @@
         <v>22</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6200,13 +6206,13 @@
         <v>22</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6217,13 +6223,13 @@
         <v>22</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6234,13 +6240,13 @@
         <v>22</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6251,13 +6257,13 @@
         <v>22</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6268,13 +6274,13 @@
         <v>22</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6285,13 +6291,13 @@
         <v>22</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6302,13 +6308,13 @@
         <v>22</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6319,13 +6325,13 @@
         <v>22</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6336,13 +6342,13 @@
         <v>22</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6353,13 +6359,13 @@
         <v>22</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6370,13 +6376,13 @@
         <v>22</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6387,13 +6393,13 @@
         <v>22</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6404,13 +6410,13 @@
         <v>22</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6421,13 +6427,13 @@
         <v>22</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6438,13 +6444,13 @@
         <v>22</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6455,13 +6461,13 @@
         <v>22</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E285" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6469,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6501,7 +6507,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6518,7 +6524,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
